--- a/BC4400F22/Lecture16/handrolled_regression_std_errors.xlsx
+++ b/BC4400F22/Lecture16/handrolled_regression_std_errors.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="180" documentId="8_{A7C04F63-AD3B-44B8-BBFD-6500A85A2FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{237CE17F-62AC-4C3A-B03B-4DC917D8B2D3}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{6589BF1D-2CC1-4E2F-8F47-CAC41A9A6C4E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{6589BF1D-2CC1-4E2F-8F47-CAC41A9A6C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Theory SW Ch. 5" sheetId="6" r:id="rId1"/>
@@ -1159,7 +1159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E1CAC9-A577-4D07-A538-A7B88A002F99}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -1878,7 +1878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F159389E-3C20-463C-B413-AAB5155DE99E}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/BC4400F22/Lecture16/handrolled_regression_std_errors.xlsx
+++ b/BC4400F22/Lecture16/handrolled_regression_std_errors.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400F22/Lecture16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{A7C04F63-AD3B-44B8-BBFD-6500A85A2FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{237CE17F-62AC-4C3A-B03B-4DC917D8B2D3}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{A7C04F63-AD3B-44B8-BBFD-6500A85A2FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71180BFB-282B-464A-9BCA-234B364CBCB5}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{6589BF1D-2CC1-4E2F-8F47-CAC41A9A6C4E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{6589BF1D-2CC1-4E2F-8F47-CAC41A9A6C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Theory SW Ch. 5" sheetId="6" r:id="rId1"/>
-    <sheet name="Handrolled Calcs" sheetId="2" r:id="rId2"/>
-    <sheet name="Excel regression output" sheetId="4" r:id="rId3"/>
-    <sheet name="myHandrolled Calcs" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="myExcel regression output" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="myHandrolled Calcs" sheetId="7" r:id="rId2"/>
+    <sheet name="myExcel regression output" sheetId="5" r:id="rId3"/>
+    <sheet name="Handrolled Calcs" sheetId="2" r:id="rId4"/>
+    <sheet name="Excel regression output" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="70">
   <si>
     <t>X</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>Using Excel Function</t>
+  </si>
+  <si>
+    <t>var(u_hat) = (SER)^2</t>
+  </si>
+  <si>
+    <t>SE(b1) = sqrt(s^2/x^2)</t>
+  </si>
+  <si>
+    <t>E(X^2)</t>
+  </si>
+  <si>
+    <t>SE(b0) = SE(b1) * sqrt( E(X^2)] )</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E1CAC9-A577-4D07-A538-A7B88A002F99}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -1169,12 +1181,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E866E68-70AA-48CD-BC1B-6FC4AADFB492}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C377D98-C395-4AEB-B6C1-9A3A0FB1BD77}">
   <dimension ref="B2:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1800,8 +1810,13 @@
       <c r="O20" s="8"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="48">
+        <f xml:space="preserve"> C18^2 / H8</f>
+        <v>0.43622448979591849</v>
+      </c>
       <c r="D21" s="49"/>
       <c r="E21" s="50"/>
       <c r="F21" s="7"/>
@@ -1816,10 +1831,20 @@
       <c r="O21" s="8"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="51"/>
+      <c r="B22" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="48">
+        <f>SQRT(C21)</f>
+        <v>0.66047292888953324</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="51">
+        <f>'Excel regression output'!$D$19</f>
+        <v>0.66047292888953313</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -1832,8 +1857,13 @@
       <c r="O22" s="8"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="48">
+        <f xml:space="preserve"> 1/C11*L8*C18^2/H8</f>
+        <v>8.5063775510204103</v>
+      </c>
       <c r="D23" s="49"/>
       <c r="E23" s="51"/>
       <c r="F23" s="7"/>
@@ -1848,10 +1878,20 @@
       <c r="O23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="51"/>
+      <c r="B24" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="48">
+        <f>SQRT(C23)</f>
+        <v>2.9165694833177573</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="51">
+        <f>'Excel regression output'!$D$18</f>
+        <v>2.9165694833177569</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -1875,1027 +1915,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F159389E-3C20-463C-B413-AAB5155DE99E}">
-  <dimension ref="B2:H32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="2.69140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="17.3046875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.84375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.07421875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="11.84375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.84375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.84375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.69140625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.23046875" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.82375447104791411</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.67857142857142871</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.51785714285714302</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2.4712634131437414</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="17"/>
-      <c r="C12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13">
-        <v>25.785714285714292</v>
-      </c>
-      <c r="E13" s="13">
-        <v>25.785714285714292</v>
-      </c>
-      <c r="F13" s="13">
-        <v>4.222222222222225</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0.17624552895208589</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="21">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13">
-        <v>12.21428571428571</v>
-      </c>
-      <c r="E14" s="13">
-        <v>6.107142857142855</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="18">
-        <v>3</v>
-      </c>
-      <c r="D15" s="18">
-        <v>38</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1.5714285714285712</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2.9165694833177569</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.53879346280513962</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.64397845268852227</v>
-      </c>
-      <c r="G18" s="13">
-        <v>-10.977557077472559</v>
-      </c>
-      <c r="H18" s="13">
-        <v>14.120414220329701</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1.3571428571428572</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0.66047292888953313</v>
-      </c>
-      <c r="E19" s="14">
-        <v>2.0548046676563256</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0.17624552895208601</v>
-      </c>
-      <c r="G19" s="14">
-        <v>-1.484642793269316</v>
-      </c>
-      <c r="H19" s="14">
-        <v>4.1989285075550304</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="13">
-        <v>1</v>
-      </c>
-      <c r="C29" s="13">
-        <v>2.9285714285714284</v>
-      </c>
-      <c r="D29" s="13">
-        <v>1.0714285714285716</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="13">
-        <v>2</v>
-      </c>
-      <c r="C30" s="13">
-        <v>7</v>
-      </c>
-      <c r="D30" s="13">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="13">
-        <v>3</v>
-      </c>
-      <c r="C31" s="13">
-        <v>8.3571428571428577</v>
-      </c>
-      <c r="D31" s="13">
-        <v>-1.3571428571428577</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="14">
-        <v>4</v>
-      </c>
-      <c r="C32" s="14">
-        <v>9.7142857142857135</v>
-      </c>
-      <c r="D32" s="14">
-        <v>2.2857142857142865</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C377D98-C395-4AEB-B6C1-9A3A0FB1BD77}">
-  <dimension ref="B2:O24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="5.23046875" customWidth="1"/>
-    <col min="2" max="2" width="27.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3828125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69140625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="8.3828125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="7.84375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.53515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.53515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.53515625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B3" s="3"/>
-      <c r="C3" s="6">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <f>C3-$C$9</f>
-        <v>-3</v>
-      </c>
-      <c r="F3" s="7">
-        <f>D3-$D$9</f>
-        <v>-3</v>
-      </c>
-      <c r="G3" s="7">
-        <f>E3*F3</f>
-        <v>9</v>
-      </c>
-      <c r="H3" s="7">
-        <f>F3^2</f>
-        <v>9</v>
-      </c>
-      <c r="I3" s="8">
-        <f>$C$14+D3*$C$13</f>
-        <v>2.9285714285714284</v>
-      </c>
-      <c r="J3" s="9">
-        <f>C3-I3</f>
-        <v>1.0714285714285716</v>
-      </c>
-      <c r="K3" s="12">
-        <f>I3-$C$9</f>
-        <v>-4.0714285714285712</v>
-      </c>
-      <c r="L3" s="30">
-        <f>D3^2</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="12">
-        <f>K3^2</f>
-        <v>16.576530612244895</v>
-      </c>
-      <c r="N3" s="7">
-        <f>E3^2</f>
-        <v>9</v>
-      </c>
-      <c r="O3" s="8">
-        <f>J3^2</f>
-        <v>1.1479591836734697</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="6">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E6" si="0">C4-$C$9</f>
-        <v>-2</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F6" si="1">D4-$D$9</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G6" si="2">E4*F4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" ref="H4:H6" si="3">F4^2</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <f t="shared" ref="I4:I6" si="4">$C$14+D4*$C$13</f>
-        <v>7</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" ref="J4:J6" si="5">C4-I4</f>
-        <v>-2</v>
-      </c>
-      <c r="K4" s="12">
-        <f t="shared" ref="K4:K6" si="6">I4-$C$9</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="30">
-        <f t="shared" ref="L4:L6" si="7">D4^2</f>
-        <v>16</v>
-      </c>
-      <c r="M4" s="12">
-        <f t="shared" ref="M4:M6" si="8">K4^2</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <f t="shared" ref="N4:N6" si="9">E4^2</f>
-        <v>4</v>
-      </c>
-      <c r="O4" s="8">
-        <f t="shared" ref="O4:O6" si="10">J4^2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="6">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="4"/>
-        <v>8.3571428571428577</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" si="5"/>
-        <v>-1.3571428571428577</v>
-      </c>
-      <c r="K5" s="12">
-        <f t="shared" si="6"/>
-        <v>1.3571428571428577</v>
-      </c>
-      <c r="L5" s="30">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="M5" s="12">
-        <f t="shared" si="8"/>
-        <v>1.8418367346938789</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <f t="shared" si="10"/>
-        <v>1.8418367346938789</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="6">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" si="4"/>
-        <v>9.7142857142857135</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" si="5"/>
-        <v>2.2857142857142865</v>
-      </c>
-      <c r="K6" s="12">
-        <f t="shared" si="6"/>
-        <v>2.7142857142857135</v>
-      </c>
-      <c r="L6" s="30">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="M6" s="12">
-        <f t="shared" si="8"/>
-        <v>7.3673469387755057</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="10"/>
-        <v>5.2244897959183705</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <f>SUM(C3:C6)</f>
-        <v>28</v>
-      </c>
-      <c r="D8" s="4">
-        <f>SUM(D3:D6)</f>
-        <v>16</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" ref="E8:O8" si="11">SUM(E3:E6)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="11"/>
-        <v>78</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="11"/>
-        <v>25.785714285714278</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="11"/>
-        <v>38</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="11"/>
-        <v>12.214285714285719</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4">
-        <f>C8/4</f>
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <f>D8/4</f>
-        <v>4</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="10"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="32">
-        <f>'Excel regression output'!D13</f>
-        <v>25.785714285714292</v>
-      </c>
-      <c r="N10" s="33">
-        <f>'Excel regression output'!D15</f>
-        <v>38</v>
-      </c>
-      <c r="O10" s="34">
-        <f>'Excel regression output'!D14</f>
-        <v>12.21428571428571</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4">
-        <f>COUNT(C3:C6)</f>
-        <v>4</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="36">
-        <f>SUM(G3:G6)/SUM(H3:H6)</f>
-        <v>1.3571428571428572</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="38">
-        <f>'Excel regression output'!$C$19</f>
-        <v>1.3571428571428572</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="36">
-        <f>C9-C13*D9</f>
-        <v>1.5714285714285712</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="38">
-        <f>'Excel regression output'!$C$18</f>
-        <v>1.5714285714285712</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="54">
-        <f>M8+O8-N8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="40">
-        <f>M8/N8</f>
-        <v>0.67857142857142838</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="42">
-        <f>'Excel regression output'!$C$6</f>
-        <v>0.67857142857142871</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="43">
-        <f>1-O8/N8</f>
-        <v>0.67857142857142838</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B18" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="43">
-        <f>SQRT(O8/(C11-2))</f>
-        <v>2.4712634131437423</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="45">
-        <f>'Excel regression output'!$C$8</f>
-        <v>2.4712634131437414</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="43">
-        <f>SQRT(O8/C11)</f>
-        <v>1.7474471175321529</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="8"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="48">
-        <f xml:space="preserve"> C18^2 / H8</f>
-        <v>0.43622448979591849</v>
-      </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="8"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="48">
-        <f>SQRT(C21)</f>
-        <v>0.66047292888953324</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="51">
-        <f>'Excel regression output'!$D$19</f>
-        <v>0.66047292888953313</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="48">
-        <f xml:space="preserve"> 1/C11*L8*C18^2/H8</f>
-        <v>8.5063775510204103</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B24" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="48">
-        <f>SQRT(C23)</f>
-        <v>2.9165694833177573</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="51">
-        <f>'Excel regression output'!$D$18</f>
-        <v>2.9165694833177569</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B20:E20"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE69EA8-A8FB-4778-946E-85AB7BF5EDB3}">
   <dimension ref="B2:H32"/>
   <sheetViews>
@@ -3150,6 +2169,10 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="C23" s="15">
+        <f>D19*F24</f>
+        <v>2.8417856504121732</v>
+      </c>
       <c r="E23" s="27"/>
       <c r="F23" s="28" t="s">
         <v>65</v>
@@ -3245,4 +2268,1035 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E866E68-70AA-48CD-BC1B-6FC4AADFB492}">
+  <dimension ref="B2:O24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.23046875" customWidth="1"/>
+    <col min="2" max="2" width="27.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69140625" style="1" customWidth="1"/>
+    <col min="5" max="8" width="8.3828125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="7.84375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.53515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.53515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.53515625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <f>C3-$C$9</f>
+        <v>-3</v>
+      </c>
+      <c r="F3" s="7">
+        <f>D3-$D$9</f>
+        <v>-3</v>
+      </c>
+      <c r="G3" s="7">
+        <f>E3*F3</f>
+        <v>9</v>
+      </c>
+      <c r="H3" s="7">
+        <f>F3^2</f>
+        <v>9</v>
+      </c>
+      <c r="I3" s="8">
+        <f>$C$14+D3*$C$13</f>
+        <v>2.9285714285714284</v>
+      </c>
+      <c r="J3" s="9">
+        <f>C3-I3</f>
+        <v>1.0714285714285716</v>
+      </c>
+      <c r="K3" s="12">
+        <f>I3-$C$9</f>
+        <v>-4.0714285714285712</v>
+      </c>
+      <c r="L3" s="30">
+        <f>D3^2</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="12">
+        <f>K3^2</f>
+        <v>16.576530612244895</v>
+      </c>
+      <c r="N3" s="7">
+        <f>E3^2</f>
+        <v>9</v>
+      </c>
+      <c r="O3" s="8">
+        <f>J3^2</f>
+        <v>1.1479591836734697</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E6" si="0">C4-$C$9</f>
+        <v>-2</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F6" si="1">D4-$D$9</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:G6" si="2">E4*F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H6" si="3">F4^2</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" ref="I4:I6" si="4">$C$14+D4*$C$13</f>
+        <v>7</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" ref="J4:J6" si="5">C4-I4</f>
+        <v>-2</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" ref="K4:K6" si="6">I4-$C$9</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="30">
+        <f t="shared" ref="L4:L6" si="7">D4^2</f>
+        <v>16</v>
+      </c>
+      <c r="M4" s="12">
+        <f t="shared" ref="M4:M6" si="8">K4^2</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:N6" si="9">E4^2</f>
+        <v>4</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" ref="O4:O6" si="10">J4^2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="6">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="4"/>
+        <v>8.3571428571428577</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="5"/>
+        <v>-1.3571428571428577</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="6"/>
+        <v>1.3571428571428577</v>
+      </c>
+      <c r="L5" s="30">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="M5" s="12">
+        <f t="shared" si="8"/>
+        <v>1.8418367346938789</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="10"/>
+        <v>1.8418367346938789</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="6">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="4"/>
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="5"/>
+        <v>2.2857142857142865</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="6"/>
+        <v>2.7142857142857135</v>
+      </c>
+      <c r="L6" s="30">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="M6" s="12">
+        <f t="shared" si="8"/>
+        <v>7.3673469387755057</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="10"/>
+        <v>5.2244897959183705</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <f>SUM(C3:C6)</f>
+        <v>28</v>
+      </c>
+      <c r="D8" s="4">
+        <f>SUM(D3:D6)</f>
+        <v>16</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" ref="E8:O8" si="11">SUM(E3:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="11"/>
+        <v>25.785714285714278</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="11"/>
+        <v>12.214285714285719</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <f>C8/4</f>
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <f>D8/4</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="32">
+        <f>'Excel regression output'!D13</f>
+        <v>25.785714285714292</v>
+      </c>
+      <c r="N10" s="33">
+        <f>'Excel regression output'!D15</f>
+        <v>38</v>
+      </c>
+      <c r="O10" s="34">
+        <f>'Excel regression output'!D14</f>
+        <v>12.21428571428571</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4">
+        <f>COUNT(C3:C6)</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="36">
+        <f>SUM(G3:G6)/SUM(H3:H6)</f>
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="38">
+        <f>'Excel regression output'!$C$19</f>
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="36">
+        <f>C9-C13*D9</f>
+        <v>1.5714285714285712</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="38">
+        <f>'Excel regression output'!$C$18</f>
+        <v>1.5714285714285712</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="54">
+        <f>M8+O8-N8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B15" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B16" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="40">
+        <f>M8/N8</f>
+        <v>0.67857142857142838</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="42">
+        <f>'Excel regression output'!$C$6</f>
+        <v>0.67857142857142871</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="43">
+        <f>1-O8/N8</f>
+        <v>0.67857142857142838</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B18" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="43">
+        <f>SQRT(O8/(C11-2))</f>
+        <v>2.4712634131437423</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="45">
+        <f>'Excel regression output'!$C$8</f>
+        <v>2.4712634131437414</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B19" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="43">
+        <f>SQRT(O8/C11)</f>
+        <v>1.7474471175321529</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B20" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B21" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="48">
+        <f>C18^2</f>
+        <v>6.1071428571428585</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B22" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="48">
+        <f>SQRT(C21/H8)</f>
+        <v>0.66047292888953324</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="51">
+        <f>'Excel regression output'!D19</f>
+        <v>0.66047292888953313</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B23" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="48">
+        <f>L8/C11</f>
+        <v>19.5</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B24" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="48">
+        <f>C22*SQRT(C23)</f>
+        <v>2.9165694833177573</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="51">
+        <f>'Excel regression output'!D18</f>
+        <v>2.9165694833177569</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B20:E20"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F159389E-3C20-463C-B413-AAB5155DE99E}">
+  <dimension ref="B2:H32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.69140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17.3046875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.84375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.07421875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="11.84375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.84375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.84375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.69140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.23046875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.82375447104791411</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.67857142857142871</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.51785714285714302</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2.4712634131437414</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="17"/>
+      <c r="C12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>25.785714285714292</v>
+      </c>
+      <c r="E13" s="13">
+        <v>25.785714285714292</v>
+      </c>
+      <c r="F13" s="13">
+        <v>4.222222222222225</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.17624552895208589</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="21">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>12.21428571428571</v>
+      </c>
+      <c r="E14" s="13">
+        <v>6.107142857142855</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18">
+        <v>38</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1.5714285714285712</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2.9165694833177569</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.53879346280513962</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.64397845268852227</v>
+      </c>
+      <c r="G18" s="13">
+        <v>-10.977557077472559</v>
+      </c>
+      <c r="H18" s="13">
+        <v>14.120414220329701</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.66047292888953313</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2.0548046676563256</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.17624552895208601</v>
+      </c>
+      <c r="G19" s="14">
+        <v>-1.484642793269316</v>
+      </c>
+      <c r="H19" s="14">
+        <v>4.1989285075550304</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E20" s="15">
+        <f>C18/D18</f>
+        <v>0.53879346280513962</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="E21" s="15">
+        <f>(C19-0)/D19</f>
+        <v>2.0548046676563256</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13">
+        <v>2.9285714285714284</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1.0714285714285716</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="13">
+        <v>2</v>
+      </c>
+      <c r="C30" s="13">
+        <v>7</v>
+      </c>
+      <c r="D30" s="13">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="13">
+        <v>3</v>
+      </c>
+      <c r="C31" s="13">
+        <v>8.3571428571428577</v>
+      </c>
+      <c r="D31" s="13">
+        <v>-1.3571428571428577</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="14">
+        <v>4</v>
+      </c>
+      <c r="C32" s="14">
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="D32" s="14">
+        <v>2.2857142857142865</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>